--- a/TEST_Document.xlsx
+++ b/TEST_Document.xlsx
@@ -1,23 +1,394 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Scenario" sheetId="2" r:id="rId1"/>
+    <sheet name="test case" sheetId="1" r:id="rId2"/>
+    <sheet name="test data" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Author</author>
+  </authors>
+  <commentList>
+    <comment ref="A8" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>MindQ: Unique No./ Name of Test Case</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B8" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>MindQ: Unique No./ Name of Test Case</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C8" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>MindQ: Unique No./ Name of Test Case</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D8" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>MindQ: Description of the Test Case</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E8" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>MIndQ: Name of Design Steps or Precondition or Pre Requisite</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F8" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>MindQ: Action to be done or User Action</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G8" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>MindQ: Clients Requirement or System Response</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H8" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>MindQ: Bahavior of the Developed Application</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K8" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">MindQ : Importance of the TestCase
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="50">
+  <si>
+    <t>Test Case Document for NetBiz_Services Module</t>
+  </si>
+  <si>
+    <t>TCD Name:</t>
+  </si>
+  <si>
+    <t>TCD Reviewed By:</t>
+  </si>
+  <si>
+    <t>TCD Created By:</t>
+  </si>
+  <si>
+    <t>TCD Reviewed On:</t>
+  </si>
+  <si>
+    <t>TCD Created On:</t>
+  </si>
+  <si>
+    <t>TCD Apporved By:</t>
+  </si>
+  <si>
+    <t>TCD Apporved On:</t>
+  </si>
+  <si>
+    <t>E-commerce_olx_TCD_1.0</t>
+  </si>
+  <si>
+    <t>Anup kumar panda</t>
+  </si>
+  <si>
+    <t>sai siddhant panda</t>
+  </si>
+  <si>
+    <t>Bhagawan</t>
+  </si>
+  <si>
+    <t>Test Scenario Name</t>
+  </si>
+  <si>
+    <t>Test Case ID</t>
+  </si>
+  <si>
+    <t>Test Case Name</t>
+  </si>
+  <si>
+    <t>Testcase Description</t>
+  </si>
+  <si>
+    <t>Step Name</t>
+  </si>
+  <si>
+    <t>Step Description</t>
+  </si>
+  <si>
+    <t>Expected Value</t>
+  </si>
+  <si>
+    <t>Actual Value</t>
+  </si>
+  <si>
+    <t>Result</t>
+  </si>
+  <si>
+    <t>Severity</t>
+  </si>
+  <si>
+    <t>Priority</t>
+  </si>
+  <si>
+    <t>QC Path / Subject</t>
+  </si>
+  <si>
+    <t>Test Type</t>
+  </si>
+  <si>
+    <t>TC_001</t>
+  </si>
+  <si>
+    <t>To check the Look &amp; Feel of Home page</t>
+  </si>
+  <si>
+    <t>Step 1</t>
+  </si>
+  <si>
+    <t>Enter the URL  of the Application</t>
+  </si>
+  <si>
+    <t>System should Display the Homepage of  Media One Technologies</t>
+  </si>
+  <si>
+    <t>Fatal</t>
+  </si>
+  <si>
+    <t>Critical</t>
+  </si>
+  <si>
+    <t>SMOKE</t>
+  </si>
+  <si>
+    <t>Test Scenario ID</t>
+  </si>
+  <si>
+    <t>MainFunctionality</t>
+  </si>
+  <si>
+    <t>Sub Functionality</t>
+  </si>
+  <si>
+    <t>Test Scenario Description</t>
+  </si>
+  <si>
+    <t>Doc Reference</t>
+  </si>
+  <si>
+    <t>Test Case name</t>
+  </si>
+  <si>
+    <t>Test Case Description</t>
+  </si>
+  <si>
+    <t>TS_001</t>
+  </si>
+  <si>
+    <t>Homepage</t>
+  </si>
+  <si>
+    <t>To check the look and feel of home page</t>
+  </si>
+  <si>
+    <t>TC-001</t>
+  </si>
+  <si>
+    <t>To check the look and feel of homepage</t>
+  </si>
+  <si>
+    <t>E-commerce</t>
+  </si>
+  <si>
+    <t>TS_EC_HP_GUI</t>
+  </si>
+  <si>
+    <t>TC_EC_HP_GUI</t>
+  </si>
+  <si>
+    <t>The webpage is displayed</t>
+  </si>
+  <si>
+    <t>passed</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -25,16 +396,127 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Georgia"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFFFF00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFFFF00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFFFF"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -42,18 +524,152 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -343,36 +959,272 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.85546875" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" customWidth="1"/>
+    <col min="4" max="4" width="21.5703125" customWidth="1"/>
+    <col min="5" max="5" width="27.7109375" customWidth="1"/>
+    <col min="6" max="6" width="17.7109375" customWidth="1"/>
+    <col min="7" max="7" width="18.140625" customWidth="1"/>
+    <col min="8" max="8" width="16.42578125" customWidth="1"/>
+    <col min="9" max="9" width="25.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="I1" s="16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2" s="14"/>
+      <c r="G2" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="H2" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" s="14" t="s">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.28515625" customWidth="1"/>
+    <col min="2" max="2" width="26.85546875" customWidth="1"/>
+    <col min="3" max="3" width="27.140625" customWidth="1"/>
+    <col min="4" max="4" width="29.42578125" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" customWidth="1"/>
+    <col min="7" max="7" width="17.140625" customWidth="1"/>
+    <col min="8" max="8" width="16.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="3"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="4">
+        <v>43480</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="3"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="22"/>
+    </row>
+    <row r="8" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H8" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="I8" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="J8" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="K8" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="L8" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="M8" s="12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="H9" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="I9" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="L9" s="9"/>
+      <c r="M9" s="10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/TEST_Document.xlsx
+++ b/TEST_Document.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Scenario" sheetId="2" r:id="rId1"/>
@@ -232,7 +232,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="57">
   <si>
     <t>Test Case Document for NetBiz_Services Module</t>
   </si>
@@ -382,6 +382,27 @@
   </si>
   <si>
     <t>passed</t>
+  </si>
+  <si>
+    <t>TS_002</t>
+  </si>
+  <si>
+    <t>Header Section</t>
+  </si>
+  <si>
+    <t>TS_HP_HS_Links</t>
+  </si>
+  <si>
+    <t>To check the links in header section</t>
+  </si>
+  <si>
+    <t>TC-002</t>
+  </si>
+  <si>
+    <t>TC_HP_HS_AdLink</t>
+  </si>
+  <si>
+    <t>To check Submik a Free add link</t>
   </si>
 </sst>
 </file>
@@ -589,7 +610,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -619,9 +640,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -658,6 +676,13 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -960,10 +985,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -980,59 +1005,85 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="G1" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="H1" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="I1" s="15" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="F2" s="14"/>
-      <c r="G2" s="13" t="s">
+      <c r="F2" s="13"/>
+      <c r="G2" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="H2" s="14" t="s">
+      <c r="H2" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="I2" s="14" t="s">
+      <c r="I2" s="13" t="s">
         <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E3" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="H3" t="s">
+        <v>55</v>
+      </c>
+      <c r="I3" s="26" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -1044,8 +1095,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1060,12 +1111,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
@@ -1121,61 +1172,61 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
-      <c r="B7" s="21"/>
-      <c r="C7" s="21" t="s">
+      <c r="B7" s="20"/>
+      <c r="C7" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="22"/>
+      <c r="D7" s="21"/>
     </row>
     <row r="8" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="E8" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="F8" s="12" t="s">
+      <c r="F8" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="G8" s="12" t="s">
+      <c r="G8" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H8" s="12" t="s">
+      <c r="H8" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="I8" s="23" t="s">
+      <c r="I8" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="J8" s="12" t="s">
+      <c r="J8" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="K8" s="12" t="s">
+      <c r="K8" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="L8" s="12" t="s">
+      <c r="L8" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="M8" s="12" t="s">
+      <c r="M8" s="11" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="13" t="s">
         <v>46</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="24" t="s">
+      <c r="C9" s="23" t="s">
         <v>47</v>
       </c>
       <c r="D9" s="8" t="s">
@@ -1190,10 +1241,10 @@
       <c r="G9" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="H9" s="18" t="s">
+      <c r="H9" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="I9" s="19" t="s">
+      <c r="I9" s="18" t="s">
         <v>49</v>
       </c>
       <c r="J9" s="5" t="s">
